--- a/JLPTProcessor/all-data-groupize.xlsx
+++ b/JLPTProcessor/all-data-groupize.xlsx
@@ -18,15 +18,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="272">
-  <si>
-    <t>Event Report: Japanese Language Proficiency Test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="267">
+  <si>
+    <t>Event Report: Japanese Language Proficiency Test -July 2023</t>
   </si>
   <si>
     <t>Download All Report - Attendees</t>
   </si>
   <si>
-    <t>Monday, February 6, 2023, 5:50 PM</t>
+    <t>Tuesday, February 7, 2023, 11:15 PM</t>
   </si>
   <si>
     <t>Notice: This report may contain personally identifiable and other client confidential data. Usage and distribution of this report should be governed by relevant regulations and your own organization's policies.</t>
@@ -95,6 +95,9 @@
     <t>Occupation</t>
   </si>
   <si>
+    <t>Occupation Details</t>
+  </si>
+  <si>
     <t>Place of learning Japanese</t>
   </si>
   <si>
@@ -425,16 +428,16 @@
     <t>Total</t>
   </si>
   <si>
-    <t>kai</t>
+    <t>awe</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>chee</t>
-  </si>
-  <si>
-    <t>user4@email.com</t>
+    <t>four</t>
+  </si>
+  <si>
+    <t>four@email.com</t>
   </si>
   <si>
     <t>Attendees</t>
@@ -446,289 +449,343 @@
     <t>No</t>
   </si>
   <si>
-    <t>2023-02-06 17:44:27 UTC</t>
-  </si>
-  <si>
-    <t>2023-02-06 17:48:35 UTC</t>
-  </si>
-  <si>
-    <t>Lemon</t>
-  </si>
-  <si>
-    <t>Grass</t>
-  </si>
-  <si>
-    <t>user3@email.com</t>
-  </si>
-  <si>
-    <t>2023-02-06 17:39:49 UTC</t>
-  </si>
-  <si>
-    <t>2023-02-06 17:43:24 UTC</t>
-  </si>
-  <si>
-    <t>Rei</t>
-  </si>
-  <si>
-    <t>Kondo</t>
-  </si>
-  <si>
-    <t>ptjc@ualberta.ca</t>
+    <t>2023-02-07 22:57:50 UTC</t>
+  </si>
+  <si>
+    <t>2023-02-07 23:01:07 UTC</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Leopard</t>
+  </si>
+  <si>
+    <t>student1@email.com</t>
+  </si>
+  <si>
+    <t>2023-02-07 22:26:27 UTC</t>
+  </si>
+  <si>
+    <t>2023-02-07 22:33:38 UTC</t>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>lev3@email.com</t>
   </si>
   <si>
     <t>incomplete</t>
   </si>
   <si>
-    <t>2023-02-06 17:42:56 UTC</t>
-  </si>
-  <si>
-    <t>Kamal</t>
-  </si>
-  <si>
-    <t>Ranaweera</t>
-  </si>
-  <si>
-    <t>ranaweer@ualberta.ca</t>
-  </si>
-  <si>
-    <t>2022-08-05 19:52:34 UTC</t>
-  </si>
-  <si>
-    <t>2023-02-06 16:37:01 UTC</t>
-  </si>
-  <si>
-    <t>First</t>
+    <t>2023-02-07 22:53:29 UTC</t>
+  </si>
+  <si>
+    <t>Melania</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>melaniaTest@email.com</t>
+  </si>
+  <si>
+    <t>2023-02-07 22:34:53 UTC</t>
+  </si>
+  <si>
+    <t>2023-02-07 22:38:48 UTC</t>
   </si>
   <si>
     <t>Student</t>
   </si>
   <si>
-    <t>student1@email.com</t>
-  </si>
-  <si>
-    <t>2023-02-03 20:31:58 UTC</t>
-  </si>
-  <si>
-    <t>2023-02-03 21:10:01 UTC</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>user1@email.com</t>
   </si>
   <si>
-    <t>2023-02-06 17:12:21 UTC</t>
-  </si>
-  <si>
-    <t>2023-02-06 17:19:00 UTC</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>student2@email.com</t>
-  </si>
-  <si>
-    <t>2023-02-06 17:34:55 UTC</t>
-  </si>
-  <si>
-    <t>2023-02-06 17:38:17 UTC</t>
+    <t>2023-02-07 22:44:37 UTC</t>
+  </si>
+  <si>
+    <t>2023-02-07 22:48:16 UTC</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>lev2@email.com</t>
+  </si>
+  <si>
+    <t>2023-02-07 22:49:22 UTC</t>
+  </si>
+  <si>
+    <t>2023-02-07 22:52:27 UTC</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>1998-07-23</t>
+    <t>2012-02-22</t>
+  </si>
+  <si>
+    <t>87654321</t>
+  </si>
+  <si>
+    <t>canadian</t>
+  </si>
+  <si>
+    <t>701 - Arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - useful for my work or will be useful in order to attain employment, to secure salary increase or promotion in my own country </t>
+  </si>
+  <si>
+    <t>5 - employed (company employee, public servant, educator, self-employed, etc)</t>
+  </si>
+  <si>
+    <t>4 - using Japanese while working as an employee, such as in the service, tourism, or hospitality industries</t>
+  </si>
+  <si>
+    <t>6 - not learning Japanese at any educational institutions such as 1 through 5 above.</t>
+  </si>
+  <si>
+    <t>Other High School outside of Alberta Other (including private tutors and self-studying)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with the teacher, 2 - Listening to what the teacher says in Japanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 - Listening to what friends say in Japanese, 3 - Reading what friends wrote in Japanese</t>
+  </si>
+  <si>
+    <t>3 - Reading what the family wrote in Japanese, 4 - Writing texts in Japanese to the family</t>
+  </si>
+  <si>
+    <t>5 - None of the above</t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with customers, 2 - Listening to what customers say in Japanese</t>
+  </si>
+  <si>
+    <t>1 - TV news program and documentaries</t>
+  </si>
+  <si>
+    <t>123 fd</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>edmonton</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>j7h 8h6</t>
+  </si>
+  <si>
+    <t>8765432345</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2017-08-22</t>
   </si>
   <si>
     <t>12345678</t>
   </si>
   <si>
-    <t>canadian</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>necessary for admission into university or graduate school in my own country</t>
-  </si>
-  <si>
-    <t>middle-school or high-school student (secondary education)</t>
-  </si>
-  <si>
-    <t>learning Japanese at elementary school (primary education)</t>
-  </si>
-  <si>
-    <t>Harry Ainlay</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>american</t>
+  </si>
+  <si>
+    <t>122 - Malay</t>
+  </si>
+  <si>
+    <t>4 - necessary for admission or as proof of proficiency for other educational institution in Japan</t>
+  </si>
+  <si>
+    <t>2 - middle-school or high-school student (secondary education)</t>
+  </si>
+  <si>
+    <t>Question Not Asked</t>
+  </si>
+  <si>
+    <t>2 - learning Japanese at middle school or high school (secondary education)</t>
+  </si>
+  <si>
+    <t>University of Lethbridge</t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with friends</t>
+  </si>
+  <si>
+    <t>3 - Reading what the family wrote in Japanese</t>
+  </si>
+  <si>
+    <t>4 - Writing texts in Japanese to colleagues</t>
+  </si>
+  <si>
+    <t>2 - Listening to what customers say in Japanese</t>
+  </si>
+  <si>
+    <t>2 - Drama (except animation), 3 - Animation, 4 - Newspapers and magazines (except manga)</t>
+  </si>
+  <si>
+    <t>123 street</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>h6h 4d4</t>
+  </si>
+  <si>
+    <t>456-789-9876</t>
+  </si>
+  <si>
+    <t>2015-07-13</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>632 - Kinya Ruanda</t>
+  </si>
+  <si>
+    <t>3 - necessary for admission or as proof of proficiency for other educational institution in my own country</t>
+  </si>
+  <si>
+    <t>3 - university or graduate-school student (higher education)</t>
+  </si>
+  <si>
+    <t>4 - learning but not majoring in Japanese at university or graduate school (higher education)</t>
+  </si>
+  <si>
+    <t>University of Calgary</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talking in Japanese with the teacher, Listening to what the teacher says in Japanese, Writing texts in Japanese to the teacher </t>
-  </si>
-  <si>
-    <t>Talking in Japanese with friends,  Listening to what friends say in Japanese, Reading what friends wrote in Japanese</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with the family, Reading what the family wrote in Japanese</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with the supervisor, Writing texts in Japanese to the supervisor</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with colleagues, Listening to what colleagues say in Japanese</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with customers, Listening to what customers say in Japanese</t>
-  </si>
-  <si>
-    <t>Manga</t>
-  </si>
-  <si>
-    <t>123 street</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>edmonton</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>canada</t>
-  </si>
-  <si>
-    <t>f5f 4s4</t>
-  </si>
-  <si>
-    <t>7808905643</t>
-  </si>
-  <si>
-    <t>1997-03-28</t>
-  </si>
-  <si>
-    <t>87654321</t>
-  </si>
-  <si>
-    <t>Amrican</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t xml:space="preserve">useful for my work or will be useful in order to attain employment, to secure salary increase or promotion in my own country </t>
-  </si>
-  <si>
-    <t>university or graduate-school student (higher education)</t>
-  </si>
-  <si>
-    <t>learning Japanese at middle school or high school (secondary education)</t>
-  </si>
-  <si>
-    <t>University of Regina</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with the teacher, Reading what the teacher wrote in Japanese</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with friends, Reading what friends wrote in Japanese</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with the family, Writing texts in Japanese to the family</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with the supervisor</t>
-  </si>
-  <si>
-    <t>Listening to what colleagues say in Japanese, Writing texts in Japanese to colleagues</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Writing texts in Japanese to customers</t>
-  </si>
-  <si>
-    <t>Drama (except animation)</t>
-  </si>
-  <si>
-    <t>Rrgina ave 2345</t>
-  </si>
-  <si>
-    <t>Regina</t>
-  </si>
-  <si>
-    <t>Sasketchewan</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>j78 5g4</t>
-  </si>
-  <si>
-    <t>9805678432</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2003-03-07</t>
-  </si>
-  <si>
-    <t>Canadian</t>
-  </si>
-  <si>
-    <t>Ewe</t>
-  </si>
-  <si>
-    <t>necessary for admission or as proof of proficiency for other educational institution in my own country</t>
-  </si>
-  <si>
-    <t>student of some other educational institution (such as language school, etc.)</t>
-  </si>
-  <si>
-    <t>majoring in Japanese at university or graduate school (higher education)</t>
-  </si>
-  <si>
-    <t>University of Calgary</t>
-  </si>
-  <si>
-    <t>Reading what the family wrote in Japanese, Writing texts in Japanese to the family</t>
-  </si>
-  <si>
-    <t>Listening to what the supervisor says in Japanese, Reading what the supervisor wrote in Japanese</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>Reading what customers wrote in Japanese,  Writing texts in Japanese to customers</t>
-  </si>
-  <si>
-    <t>Animation, Books (except textbooks)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-34 ave </t>
+    <t xml:space="preserve">1 - Talking in Japanese with the teacher, 2 - Listening to what the teacher says in Japanese, 3 - Reading what the teacher wrote in Japanese, 4 - Writing texts in Japanese to the teacher </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 - Listening to what friends say in Japanese, 3 - Reading what friends wrote in Japanese, 4 - Writing texts in Japanese to friends</t>
+  </si>
+  <si>
+    <t>2 - Listening to what the family say in Japanese, 4 - Writing texts in Japanese to the family</t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with the supervisor, 2 - Listening to what the supervisor says in Japanese, 4 - Writing texts in Japanese to the supervisor</t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with colleagues</t>
+  </si>
+  <si>
+    <t>2 - Drama (except animation), 3 - Animation</t>
+  </si>
+  <si>
+    <t>street 123</t>
+  </si>
+  <si>
+    <t>g5h 6g7</t>
+  </si>
+  <si>
+    <t>789-987-6543</t>
+  </si>
+  <si>
+    <t>2010-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 629 - Ashanti </t>
+  </si>
+  <si>
+    <t>7 - to measure my own level of proficiency for reasons other than 1 through 6 above</t>
+  </si>
+  <si>
+    <t>1 - using Japanese while working as a Japanese-language teacher at educational institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Alberta</t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with friends,  2 - Listening to what friends say in Japanese</t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with the family, 3 - Reading what the family wrote in Japanese</t>
+  </si>
+  <si>
+    <t>3 - Reading what the supervisor wrote in Japanese, 4 - Writing texts in Japanese to the supervisor</t>
+  </si>
+  <si>
+    <t>2 - Listening to what colleagues say in Japanese, 3 - Reading what colleagues wrote in Japanese, 4 - Writing texts in Japanese to colleagues</t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with customers,  4 - Writing texts in Japanese to customers</t>
+  </si>
+  <si>
+    <t>2 - Drama (except animation), 4 - Newspapers and magazines (except manga), 5 - Books (except textbooks), 6 - Manga, 8 - Others</t>
+  </si>
+  <si>
+    <t>street address 111</t>
+  </si>
+  <si>
+    <t>J8K 9K8</t>
+  </si>
+  <si>
+    <t>780-765-8976</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>602 - Akan</t>
+  </si>
+  <si>
+    <t>5 - learning Japanese at some other educational institution (such as language school, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Listening to what the teacher says in Japanese, 3 - Reading what the teacher wrote in Japanese, 4 - Writing texts in Japanese to the teacher </t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with the family, 3 - Reading what the family wrote in Japanese, 4 - Writing texts in Japanese to the family</t>
+  </si>
+  <si>
+    <t>1 - Talking in Japanese with the supervisor, 3 - Reading what the supervisor wrote in Japanese</t>
+  </si>
+  <si>
+    <t>2 - Listening to what colleagues say in Japanese, 4 - Writing texts in Japanese to colleagues</t>
+  </si>
+  <si>
+    <t>2 - Drama (except animation), 3 - Animation, 8 - Others</t>
   </si>
   <si>
     <t>calgary</t>
@@ -737,103 +794,31 @@
     <t>Ab</t>
   </si>
   <si>
-    <t>K9L 0H7</t>
-  </si>
-  <si>
-    <t>780-567-4532</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>necessary for admission into university or graduate school in Japan</t>
-  </si>
-  <si>
-    <t>learning Japanese at some other educational institution (such as language school, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> University of Alberta</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with the teacher, Listening to what the teacher says in Japanese, Reading what the teacher wrote in Japanese</t>
-  </si>
-  <si>
-    <t>Listening to what the family say in Japanese</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with the supervisor, Reading what the supervisor wrote in Japanese</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with colleagues, Reading what colleagues wrote in Japanese</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with customers,  Writing texts in Japanese to customers</t>
-  </si>
-  <si>
-    <t>TV news program and documentaries</t>
-  </si>
-  <si>
-    <t>Edmonton</t>
-  </si>
-  <si>
-    <t>Alberta</t>
-  </si>
-  <si>
-    <t>T7F 4D2</t>
-  </si>
-  <si>
-    <t>780-908-6754</t>
-  </si>
-  <si>
-    <t>2022-02-02</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Akan</t>
-  </si>
-  <si>
-    <t>necessary for admission or as proof of proficiency for other educational institution in Japan</t>
-  </si>
-  <si>
-    <t>learning but not majoring in Japanese at university or graduate school (higher education)</t>
-  </si>
-  <si>
-    <t>University of Lethbridge</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Talking in Japanese with the teacher</t>
-  </si>
-  <si>
-    <t>Listening to what customers say in Japanese, Reading what customers wrote in Japanese</t>
-  </si>
-  <si>
-    <t>TV news program and documentaries, Books (except textbooks)</t>
-  </si>
-  <si>
-    <t>Friday, August 5, 2022</t>
-  </si>
-  <si>
-    <t>Exam Level N2</t>
+    <t>g7j 9k8</t>
+  </si>
+  <si>
+    <t>780-789-6543</t>
+  </si>
+  <si>
+    <t>Tuesday, February 7, 2023</t>
+  </si>
+  <si>
+    <t>N4</t>
   </si>
   <si>
     <t>$70</t>
   </si>
   <si>
     <t>requested</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N2</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1251,186 +1236,186 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
         <v>137</v>
       </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>136</v>
-      </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
         <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
         <v>162</v>
@@ -1444,7 +1429,7 @@
         <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -1453,66 +1438,28 @@
         <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
         <v>167</v>
       </c>
       <c r="L12" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1531,27 +1478,27 @@
     <col min="1" max="52" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1669,600 +1616,618 @@
       <c r="AM6" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AN6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>180</v>
+      </c>
+      <c r="R7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S7" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" t="s">
+        <v>182</v>
+      </c>
+      <c r="W7" t="s">
+        <v>182</v>
+      </c>
+      <c r="X7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
         <v>137</v>
       </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N8" t="s">
+        <v>204</v>
+      </c>
+      <c r="O8" t="s">
+        <v>205</v>
+      </c>
+      <c r="P8" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" t="s">
+        <v>182</v>
+      </c>
+      <c r="V8" t="s">
+        <v>181</v>
+      </c>
+      <c r="W8" t="s">
+        <v>181</v>
+      </c>
+      <c r="X8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" t="s">
+        <v>203</v>
+      </c>
+      <c r="N9" t="s">
+        <v>221</v>
+      </c>
+      <c r="O9" t="s">
+        <v>222</v>
+      </c>
+      <c r="P9" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" t="s">
+        <v>179</v>
+      </c>
+      <c r="T9" t="s">
+        <v>179</v>
+      </c>
+      <c r="U9" t="s">
+        <v>223</v>
+      </c>
+      <c r="V9" t="s">
+        <v>181</v>
+      </c>
+      <c r="W9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" t="s">
         <v>175</v>
       </c>
-      <c r="G7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="M10" t="s">
+        <v>236</v>
+      </c>
+      <c r="N10" t="s">
+        <v>204</v>
+      </c>
+      <c r="O10" t="s">
+        <v>237</v>
+      </c>
+      <c r="P10" t="s">
         <v>179</v>
       </c>
-      <c r="L7" t="s">
+      <c r="Q10" t="s">
         <v>180</v>
       </c>
-      <c r="M7" t="s">
+      <c r="R10" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" t="s">
+        <v>179</v>
+      </c>
+      <c r="T10" t="s">
+        <v>179</v>
+      </c>
+      <c r="U10" t="s">
         <v>181</v>
       </c>
-      <c r="N7" t="s">
+      <c r="V10" t="s">
         <v>182</v>
       </c>
-      <c r="O7" t="s">
+      <c r="W10" t="s">
+        <v>181</v>
+      </c>
+      <c r="X10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z10" t="s">
         <v>183</v>
       </c>
-      <c r="P7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>184</v>
-      </c>
-      <c r="R7" t="s">
-        <v>184</v>
-      </c>
-      <c r="S7" t="s">
-        <v>184</v>
-      </c>
-      <c r="T7" t="s">
-        <v>185</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="AA10" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L11" t="s">
+        <v>202</v>
+      </c>
+      <c r="M11" t="s">
+        <v>203</v>
+      </c>
+      <c r="N11" t="s">
+        <v>250</v>
+      </c>
+      <c r="O11" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R11" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" t="s">
+        <v>179</v>
+      </c>
+      <c r="T11" t="s">
+        <v>179</v>
+      </c>
+      <c r="U11" t="s">
+        <v>181</v>
+      </c>
+      <c r="V11" t="s">
+        <v>181</v>
+      </c>
+      <c r="W11" t="s">
+        <v>181</v>
+      </c>
+      <c r="X11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE11" t="s">
         <v>186</v>
       </c>
-      <c r="V7" t="s">
-        <v>187</v>
-      </c>
-      <c r="W7" t="s">
-        <v>187</v>
-      </c>
-      <c r="X7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AF11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH11" t="s">
         <v>190</v>
       </c>
-      <c r="AB7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AI11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK11" t="s">
         <v>193</v>
       </c>
-      <c r="AE7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J8" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" t="s">
-        <v>206</v>
-      </c>
-      <c r="L8" t="s">
-        <v>207</v>
-      </c>
-      <c r="M8" t="s">
-        <v>208</v>
-      </c>
-      <c r="N8" t="s">
-        <v>209</v>
-      </c>
-      <c r="O8" t="s">
-        <v>183</v>
-      </c>
-      <c r="P8" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" t="s">
-        <v>184</v>
-      </c>
-      <c r="S8" t="s">
-        <v>184</v>
-      </c>
-      <c r="T8" t="s">
-        <v>185</v>
-      </c>
-      <c r="U8" t="s">
-        <v>187</v>
-      </c>
-      <c r="V8" t="s">
-        <v>187</v>
-      </c>
-      <c r="W8" t="s">
-        <v>187</v>
-      </c>
-      <c r="X8" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" t="s">
-        <v>225</v>
-      </c>
-      <c r="J9" t="s">
-        <v>226</v>
-      </c>
-      <c r="K9" t="s">
-        <v>227</v>
-      </c>
-      <c r="L9" t="s">
-        <v>228</v>
-      </c>
-      <c r="M9" t="s">
-        <v>229</v>
-      </c>
-      <c r="N9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O9" t="s">
-        <v>183</v>
-      </c>
-      <c r="P9" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>184</v>
-      </c>
-      <c r="R9" t="s">
-        <v>184</v>
-      </c>
-      <c r="S9" t="s">
-        <v>184</v>
-      </c>
-      <c r="T9" t="s">
-        <v>186</v>
-      </c>
-      <c r="U9" t="s">
-        <v>187</v>
-      </c>
-      <c r="V9" t="s">
-        <v>187</v>
-      </c>
-      <c r="W9" t="s">
-        <v>187</v>
-      </c>
-      <c r="X9" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="A10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K10" t="s">
-        <v>243</v>
-      </c>
-      <c r="L10" t="s">
-        <v>228</v>
-      </c>
-      <c r="M10" t="s">
-        <v>244</v>
-      </c>
-      <c r="N10" t="s">
-        <v>245</v>
-      </c>
-      <c r="O10" t="s">
-        <v>184</v>
-      </c>
-      <c r="P10" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>184</v>
-      </c>
-      <c r="R10" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10" t="s">
-        <v>184</v>
-      </c>
-      <c r="T10" t="s">
-        <v>187</v>
-      </c>
-      <c r="U10" t="s">
-        <v>187</v>
-      </c>
-      <c r="V10" t="s">
-        <v>187</v>
-      </c>
-      <c r="W10" t="s">
-        <v>187</v>
-      </c>
-      <c r="X10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" t="s">
-        <v>257</v>
-      </c>
-      <c r="H11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="AL11" t="s">
         <v>258</v>
       </c>
-      <c r="J11" t="s">
+      <c r="AM11" t="s">
         <v>259</v>
       </c>
-      <c r="K11" t="s">
-        <v>260</v>
-      </c>
-      <c r="L11" t="s">
-        <v>180</v>
-      </c>
-      <c r="M11" t="s">
-        <v>261</v>
-      </c>
-      <c r="N11" t="s">
-        <v>262</v>
-      </c>
-      <c r="O11" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>263</v>
-      </c>
-      <c r="R11" t="s">
-        <v>263</v>
-      </c>
-      <c r="S11" t="s">
-        <v>264</v>
-      </c>
-      <c r="T11" t="s">
-        <v>187</v>
-      </c>
-      <c r="U11" t="s">
-        <v>187</v>
-      </c>
-      <c r="V11" t="s">
-        <v>185</v>
-      </c>
-      <c r="W11" t="s">
-        <v>185</v>
-      </c>
-      <c r="X11" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>196</v>
+      <c r="AN11" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2288,7 +2253,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2303,28 +2268,28 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
@@ -2333,85 +2298,85 @@
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2419,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2433,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2447,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -2461,13 +2426,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -2475,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -2495,21 +2460,7 @@
         <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2519,7 +2470,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2535,7 +2486,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2562,89 +2513,134 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I10" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
         <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I11" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2657,16 +2653,20 @@
       <c r="D12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" t="s">
-        <v>171</v>
+      <c r="E12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I12" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +2676,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX13"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -2707,7 +2707,7 @@
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -2722,139 +2722,139 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -2862,13 +2862,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -2904,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
         <v>161</v>
@@ -2939,20 +2939,6 @@
       </c>
       <c r="E12" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
